--- a/SYNTEC G CODE.xlsx
+++ b/SYNTEC G CODE.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="97">
   <si>
     <t>Функция</t>
   </si>
@@ -274,6 +274,42 @@
   </si>
   <si>
     <t>G137.2</t>
+  </si>
+  <si>
+    <t>G54-G59</t>
+  </si>
+  <si>
+    <t>Cистемы координат</t>
+  </si>
+  <si>
+    <t>Задание абсолютных координат опорных точек траектории</t>
+  </si>
+  <si>
+    <t>G43 H999</t>
+  </si>
+  <si>
+    <t>Компенсировать длину инструмента в шпинделе №999 в положительную сторону.</t>
+  </si>
+  <si>
+    <t>G17</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F (подача) — в формате мм/мин</t>
+  </si>
+  <si>
+    <t>G49</t>
+  </si>
+  <si>
+    <t>Отмена компенсации радиуса инструмента</t>
+  </si>
+  <si>
+    <t>Отмена компенсации длины инструмента</t>
+  </si>
+  <si>
+    <t>Работаем в плоскости XY</t>
+  </si>
+  <si>
+    <t>/</t>
   </si>
 </sst>
 </file>
@@ -678,15 +714,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="B43" sqref="A1:B43"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="73.85546875" customWidth="1"/>
+    <col min="1" max="1" width="98.5703125" customWidth="1"/>
     <col min="2" max="2" width="20.140625" customWidth="1"/>
     <col min="3" max="3" width="18.85546875" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
@@ -1063,7 +1099,9 @@
       <c r="A41" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="7"/>
+      <c r="B41" s="7" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="42" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
@@ -1079,6 +1117,62 @@
       </c>
       <c r="B43" s="7" t="s">
         <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A44" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A45" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A46" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A47" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A48" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A49" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A50" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/SYNTEC G CODE.xlsx
+++ b/SYNTEC G CODE.xlsx
@@ -288,9 +288,6 @@
     <t>G43 H999</t>
   </si>
   <si>
-    <t>Компенсировать длину инструмента в шпинделе №999 в положительную сторону.</t>
-  </si>
-  <si>
     <t>G17</t>
   </si>
   <si>
@@ -310,6 +307,9 @@
   </si>
   <si>
     <t>/</t>
+  </si>
+  <si>
+    <t>Компенсировать длину инструмента в шпинделе №999</t>
   </si>
 </sst>
 </file>
@@ -717,7 +717,7 @@
   <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1100,7 +1100,7 @@
         <v>80</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -1129,7 +1129,7 @@
     </row>
     <row r="45" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>88</v>
@@ -1145,15 +1145,15 @@
     </row>
     <row r="47" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>21</v>
@@ -1161,7 +1161,7 @@
     </row>
     <row r="49" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B49" s="7" t="s">
         <v>7</v>
@@ -1169,10 +1169,10 @@
     </row>
     <row r="50" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
